--- a/virtual_assets/Doc/코인별_업비트_상장일.xlsx
+++ b/virtual_assets/Doc/코인별_업비트_상장일.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\python\virtual_assets\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{90EB775A-1597-419D-8612-393088550910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49231C8E-E8B4-4456-A9D9-2387008F03CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="1770" yWindow="1770" windowWidth="21600" windowHeight="13245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="코인별_업비트_상장일" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="213">
   <si>
     <t>ARDR</t>
   </si>
@@ -271,54 +271,9 @@
     <t>SXP</t>
   </si>
   <si>
-    <t>HUNT</t>
-  </si>
-  <si>
-    <t>PLA</t>
-  </si>
-  <si>
-    <t>DOT</t>
-  </si>
-  <si>
-    <t>SRM</t>
-  </si>
-  <si>
-    <t>MVL</t>
-  </si>
-  <si>
-    <t>AQT</t>
-  </si>
-  <si>
-    <t>XEC</t>
-  </si>
-  <si>
-    <t>SSX</t>
-  </si>
-  <si>
-    <t>META</t>
-  </si>
-  <si>
-    <t>FCT2</t>
-  </si>
-  <si>
-    <t>CBK</t>
-  </si>
-  <si>
-    <t>SAND</t>
-  </si>
-  <si>
-    <t>HUM</t>
-  </si>
-  <si>
     <t>DOGE</t>
   </si>
   <si>
-    <t>AXS</t>
-  </si>
-  <si>
-    <t>DAWN</t>
-  </si>
-  <si>
     <t>FLOW</t>
   </si>
   <si>
@@ -328,19 +283,7 @@
     <t>MATIC</t>
   </si>
   <si>
-    <t>NU</t>
-  </si>
-  <si>
     <t>SOL</t>
-  </si>
-  <si>
-    <t>1INCH</t>
-  </si>
-  <si>
-    <t>AAVE</t>
-  </si>
-  <si>
-    <t>ALGO</t>
   </si>
   <si>
     <t>NEAR</t>
@@ -381,291 +324,375 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>등락률</t>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=ADA --enddate=2017-10-06</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=SBD --enddate=2017-10-27</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=POWR --enddate=2017-11-14</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=BTG --enddate=2017-11-20</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=EOS --enddate=2018-03-22</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=ICX --enddate=2018-03-23</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=STMX --enddate=2018-03-23</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=TRX --enddate=2018-04-05</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=GLM --enddate=2018-04-13</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=SC --enddate=2018-04-26</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=ONT --enddate=2018-05-03</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=ZIL --enddate=2018-05-10</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=POLY --enddate=2018-05-30</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=ZRX --enddate=2018-05-30</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=LOOM --enddate=2018-06-12</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=BAT --enddate=2018-07-23</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=IOST --enddate=2018-07-25</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=RFR --enddate=2018-07-27</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=CVC --enddate=2018-08-02</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=IQ --enddate=2018-08-02</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=IOTA --enddate=2018-08-04</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=MFT --enddate=2018-09-14</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=GAS --enddate=2018-09-28</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=ONG --enddate=2018-09-28</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=MED --enddate=2018-10-05</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=UPP --enddate=2018-10-12</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=ELF --enddate=2018-10-19</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=KNC --enddate=2018-10-26</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=BSV --enddate=2018-11-16</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=THETA --enddate=2018-11-30</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=WAXP --enddate=2018-12-11</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=QKC --enddate=2019-01-15</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=BTT --enddate=2019-01-31</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=MOC --enddate=2019-02-21</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=ENJ --enddate=2019-03-18</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=TFUEL --enddate=2019-03-22</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=MANA --enddate=2019-03-28</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=ANKR --enddate=2019-04-01</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=PUNDIX --enddate=2019-04-05</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=AERGO --enddate=2019-04-26</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=ATOM --enddate=2019-05-03</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=TT --enddate=2019-05-09</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=CRE --enddate=2019-05-17</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=MBL --enddate=2019-06-20</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=HBAR --enddate=2019-09-17</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=MLK --enddate=2020-02-21</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=STPT --enddate=2020-03-24</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=ORBS --enddate=2020-03-31</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=VET --enddate=2020-04-07</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=CHZ --enddate=2020-04-17</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=DKA --enddate=2020-07-14</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=HIVE --enddate=2020-07-21</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=KAVA --enddate=2020-07-23</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=AHT --enddate=2020-07-27</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=STRK --enddate=2020-07-30</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=LINK --enddate=2020-08-04</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=XTZ --enddate=2020-08-04</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=BORA --enddate=2020-08-05</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=JST --enddate=2020-08-14</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=CRO --enddate=2020-08-21</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=TON --enddate=2020-08-25</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=SXP --enddate=2020-09-04</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=HUNT --enddate=2020-09-15</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=PLA --enddate=2020-09-29</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=DOT --enddate=2020-10-05</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=SRM --enddate=2020-10-15</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=MVL --enddate=2020-10-21</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=AQT --enddate=2020-11-17</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=XEC --enddate=2020-11-19</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=SSX --enddate=2020-11-30</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=META --enddate=2020-12-02</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=FCT2 --enddate=2020-12-08</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=CBK --enddate=2020-12-24</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=SAND --enddate=2021-01-21</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=HUM --enddate=2021-01-27</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=DOGE --enddate=2021-02-24</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=AXS --enddate=2021-04-05</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=DAWN --enddate=2021-04-05</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=FLOW --enddate=2021-04-05</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=STX --enddate=2021-04-05</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=MATIC --enddate=2021-10-15</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=NU --enddate=2021-10-15</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=SOL --enddate=2021-10-15</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=1INCH --enddate=2021-10-27</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=AAVE --enddate=2021-10-27</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=ALGO --enddate=2021-11-18</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=NEAR --enddate=2021-12-15</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=WEMIX --enddate=2022-01-11</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=AVAX --enddate=2022-02-08</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=T --enddate=2022-03-02</t>
+  </si>
+  <si>
+    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=CELO --enddate=2022-03-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">py ohlcv.py --count=1400 --interval=minute1 --symbol=gmt --enddate=2022-05-04 </t>
+  </si>
+  <si>
+    <t>EARN</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=ADA --enddate=2017-10-06</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=SBD --enddate=2017-10-27</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=POWR --enddate=2017-11-14</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=BTG --enddate=2017-11-20</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=EOS --enddate=2018-03-22</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=ICX --enddate=2018-03-23</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=STMX --enddate=2018-03-23</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=TRX --enddate=2018-04-05</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=GLM --enddate=2018-04-13</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=SC --enddate=2018-04-26</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=ONT --enddate=2018-05-03</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=ZIL --enddate=2018-05-10</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=POLY --enddate=2018-05-30</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=ZRX --enddate=2018-05-30</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=LOOM --enddate=2018-06-12</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=BAT --enddate=2018-07-23</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=IOST --enddate=2018-07-25</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=RFR --enddate=2018-07-27</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=CVC --enddate=2018-08-02</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=IQ --enddate=2018-08-02</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=IOTA --enddate=2018-08-04</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=MFT --enddate=2018-09-14</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=GAS --enddate=2018-09-28</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=ONG --enddate=2018-09-28</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=MED --enddate=2018-10-05</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=UPP --enddate=2018-10-12</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=ELF --enddate=2018-10-19</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=KNC --enddate=2018-10-26</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=BSV --enddate=2018-11-16</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=THETA --enddate=2018-11-30</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=WAXP --enddate=2018-12-11</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=QKC --enddate=2019-01-15</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=BTT --enddate=2019-01-31</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=MOC --enddate=2019-02-21</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=ENJ --enddate=2019-03-18</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=TFUEL --enddate=2019-03-22</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=MANA --enddate=2019-03-28</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=ANKR --enddate=2019-04-01</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=PUNDIX --enddate=2019-04-05</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=AERGO --enddate=2019-04-26</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=ATOM --enddate=2019-05-03</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=TT --enddate=2019-05-09</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=CRE --enddate=2019-05-17</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=MBL --enddate=2019-06-20</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=HBAR --enddate=2019-09-17</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=MLK --enddate=2020-02-21</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=STPT --enddate=2020-03-24</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=ORBS --enddate=2020-03-31</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=VET --enddate=2020-04-07</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=CHZ --enddate=2020-04-17</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=DKA --enddate=2020-07-14</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=HIVE --enddate=2020-07-21</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=KAVA --enddate=2020-07-23</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=AHT --enddate=2020-07-27</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=STRK --enddate=2020-07-30</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=LINK --enddate=2020-08-04</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=XTZ --enddate=2020-08-04</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=BORA --enddate=2020-08-05</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=JST --enddate=2020-08-14</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=CRO --enddate=2020-08-21</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=TON --enddate=2020-08-25</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=SXP --enddate=2020-09-04</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=HUNT --enddate=2020-09-15</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=PLA --enddate=2020-09-29</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=DOT --enddate=2020-10-05</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=SRM --enddate=2020-10-15</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=MVL --enddate=2020-10-21</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=AQT --enddate=2020-11-17</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=XEC --enddate=2020-11-19</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=SSX --enddate=2020-11-30</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=META --enddate=2020-12-02</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=FCT2 --enddate=2020-12-08</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=CBK --enddate=2020-12-24</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=SAND --enddate=2021-01-21</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=HUM --enddate=2021-01-27</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=DOGE --enddate=2021-02-24</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=AXS --enddate=2021-04-05</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=DAWN --enddate=2021-04-05</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=FLOW --enddate=2021-04-05</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=STX --enddate=2021-04-05</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=MATIC --enddate=2021-10-15</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=NU --enddate=2021-10-15</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=SOL --enddate=2021-10-15</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=1INCH --enddate=2021-10-27</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=AAVE --enddate=2021-10-27</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=ALGO --enddate=2021-11-18</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=NEAR --enddate=2021-12-15</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=WEMIX --enddate=2022-01-11</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=AVAX --enddate=2022-02-08</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=T --enddate=2022-03-02</t>
-  </si>
-  <si>
-    <t>py ohlcv.py --count=1400 --interval=minute1 --symbol=CELO --enddate=2022-03-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">py ohlcv.py --count=1400 --interval=minute1 --symbol=gmt --enddate=2022-05-04 </t>
+    <t>DAWN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NU</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1INCH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAVE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALGO</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEARN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEARN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAND</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>HUM</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>HUNT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLA</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRM</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MVL</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AQT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>XEC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSX</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>META</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCT2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBK</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -825,8 +852,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Gulim"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1006,8 +1039,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1137,6 +1176,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1266,7 +1320,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1288,14 +1342,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1651,1850 +1702,2230 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O116"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:Q116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="J106" sqref="J106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="3" width="11.125" customWidth="1"/>
-    <col min="4" max="4" width="19.375" customWidth="1"/>
-    <col min="5" max="5" width="7.75" customWidth="1"/>
-    <col min="15" max="15" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" hidden="1" customWidth="1"/>
+    <col min="4" max="6" width="10.125" customWidth="1"/>
+    <col min="7" max="7" width="7.75" customWidth="1"/>
+    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3">
         <v>43003</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="3">
         <v>43003</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C5" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="3">
         <v>43003</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="3">
         <v>43003</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="3">
         <v>43003</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="3">
         <v>43003</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="3">
         <v>43003</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C10" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="3">
         <v>43003</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C11" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="3">
         <v>43003</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C12" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="3">
         <v>43003</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="3">
         <v>43003</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C14" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="3">
         <v>43003</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="3">
         <v>43003</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C16" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="3">
         <v>43003</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C17" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="3">
         <v>43003</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C18" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="3">
         <v>43003</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C19" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="3">
         <v>43003</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C20" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="3">
         <v>43003</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C21" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="3">
         <v>43003</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C22" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="3">
         <v>43003</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C23" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="3">
         <v>43003</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C24" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="3">
         <v>43014</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="7"/>
-      <c r="F25" t="s">
-        <v>119</v>
-      </c>
-      <c r="M25" s="6"/>
-      <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" t="s">
+        <v>99</v>
+      </c>
+      <c r="O25" s="6"/>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="3">
         <v>43035</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="7"/>
-      <c r="F26" t="s">
-        <v>120</v>
-      </c>
-      <c r="M26" s="6"/>
-      <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" t="s">
+        <v>100</v>
+      </c>
+      <c r="O26" s="6"/>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="3">
         <v>43053</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="7"/>
-      <c r="F27" t="s">
-        <v>121</v>
-      </c>
-      <c r="M27" s="6"/>
-      <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" t="s">
+        <v>101</v>
+      </c>
+      <c r="O27" s="6"/>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="3">
         <v>43059</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="7"/>
-      <c r="F28" t="s">
-        <v>122</v>
-      </c>
-      <c r="M28" s="6"/>
-      <c r="O28" s="1"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" t="s">
+        <v>102</v>
+      </c>
+      <c r="O28" s="6"/>
+      <c r="Q28" s="1"/>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="3">
         <v>43181</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="7"/>
-      <c r="F29" t="s">
-        <v>123</v>
-      </c>
-      <c r="M29" s="6"/>
-      <c r="O29" s="1"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" t="s">
+        <v>103</v>
+      </c>
+      <c r="O29" s="6"/>
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="3">
         <v>43182</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="7"/>
-      <c r="F30" t="s">
-        <v>124</v>
-      </c>
-      <c r="M30" s="6"/>
-      <c r="O30" s="1"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" t="s">
+        <v>104</v>
+      </c>
+      <c r="O30" s="6"/>
+      <c r="Q30" s="1"/>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="3">
         <v>43182</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="7"/>
-      <c r="F31" t="s">
-        <v>125</v>
-      </c>
-      <c r="M31" s="6"/>
-      <c r="O31" s="1"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" t="s">
+        <v>105</v>
+      </c>
+      <c r="O31" s="6"/>
+      <c r="Q31" s="1"/>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="3">
         <v>43195</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="7"/>
-      <c r="F32" t="s">
-        <v>126</v>
-      </c>
-      <c r="M32" s="6"/>
-      <c r="O32" s="1"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" t="s">
+        <v>106</v>
+      </c>
+      <c r="O32" s="6"/>
+      <c r="Q32" s="1"/>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="3">
         <v>43203</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="7"/>
-      <c r="F33" t="s">
-        <v>127</v>
-      </c>
-      <c r="M33" s="6"/>
-      <c r="O33" s="1"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" t="s">
+        <v>107</v>
+      </c>
+      <c r="O33" s="6"/>
+      <c r="Q33" s="1"/>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B34" s="3">
         <v>43216</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="7"/>
-      <c r="F34" t="s">
-        <v>128</v>
-      </c>
-      <c r="M34" s="6"/>
-      <c r="O34" s="1"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" t="s">
+        <v>108</v>
+      </c>
+      <c r="O34" s="6"/>
+      <c r="Q34" s="1"/>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="3">
         <v>43223</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="7"/>
-      <c r="F35" t="s">
-        <v>129</v>
-      </c>
-      <c r="M35" s="6"/>
-      <c r="O35" s="1"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" t="s">
+        <v>109</v>
+      </c>
+      <c r="O35" s="6"/>
+      <c r="Q35" s="1"/>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B36" s="3">
         <v>43230</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="7"/>
-      <c r="F36" t="s">
-        <v>130</v>
-      </c>
-      <c r="M36" s="6"/>
-      <c r="O36" s="1"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" t="s">
+        <v>110</v>
+      </c>
+      <c r="O36" s="6"/>
+      <c r="Q36" s="1"/>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="3">
         <v>43250</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="7"/>
-      <c r="F37" t="s">
-        <v>131</v>
-      </c>
-      <c r="M37" s="6"/>
-      <c r="O37" s="1"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" t="s">
+        <v>111</v>
+      </c>
+      <c r="O37" s="6"/>
+      <c r="Q37" s="1"/>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B38" s="3">
         <v>43250</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="7"/>
-      <c r="F38" t="s">
-        <v>132</v>
-      </c>
-      <c r="M38" s="6"/>
-      <c r="O38" s="1"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" t="s">
+        <v>112</v>
+      </c>
+      <c r="O38" s="6"/>
+      <c r="Q38" s="1"/>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B39" s="3">
         <v>43263</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="7"/>
-      <c r="F39" t="s">
-        <v>133</v>
-      </c>
-      <c r="M39" s="6"/>
-      <c r="O39" s="1"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" t="s">
+        <v>113</v>
+      </c>
+      <c r="O39" s="6"/>
+      <c r="Q39" s="1"/>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B40" s="3">
         <v>43304</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="7"/>
-      <c r="F40" t="s">
-        <v>134</v>
-      </c>
-      <c r="M40" s="6"/>
-      <c r="O40" s="1"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" t="s">
+        <v>114</v>
+      </c>
+      <c r="O40" s="6"/>
+      <c r="Q40" s="1"/>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B41" s="3">
         <v>43306</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="7"/>
-      <c r="F41" t="s">
-        <v>135</v>
-      </c>
-      <c r="M41" s="6"/>
-      <c r="O41" s="1"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" t="s">
+        <v>115</v>
+      </c>
+      <c r="O41" s="6"/>
+      <c r="Q41" s="1"/>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="3">
         <v>43308</v>
       </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="7"/>
-      <c r="F42" t="s">
-        <v>136</v>
-      </c>
-      <c r="M42" s="6"/>
-      <c r="O42" s="1"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" t="s">
+        <v>116</v>
+      </c>
+      <c r="O42" s="6"/>
+      <c r="Q42" s="1"/>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B43" s="3">
         <v>43314</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="7"/>
-      <c r="F43" t="s">
-        <v>137</v>
-      </c>
-      <c r="M43" s="6"/>
-      <c r="O43" s="1"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" t="s">
+        <v>117</v>
+      </c>
+      <c r="O43" s="6"/>
+      <c r="Q43" s="1"/>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="3">
         <v>43314</v>
       </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="7"/>
-      <c r="F44" t="s">
-        <v>138</v>
-      </c>
-      <c r="M44" s="6"/>
-      <c r="O44" s="1"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" t="s">
+        <v>118</v>
+      </c>
+      <c r="O44" s="6"/>
+      <c r="Q44" s="1"/>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B45" s="3">
         <v>43316</v>
       </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="7"/>
-      <c r="F45" t="s">
-        <v>139</v>
-      </c>
-      <c r="M45" s="6"/>
-      <c r="O45" s="1"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" t="s">
+        <v>119</v>
+      </c>
+      <c r="O45" s="6"/>
+      <c r="Q45" s="1"/>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B46" s="3">
         <v>43357</v>
       </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="7"/>
-      <c r="F46" t="s">
-        <v>140</v>
-      </c>
-      <c r="M46" s="6"/>
-      <c r="O46" s="1"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" t="s">
+        <v>120</v>
+      </c>
+      <c r="O46" s="6"/>
+      <c r="Q46" s="1"/>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B47" s="3">
         <v>43371</v>
       </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="7"/>
-      <c r="F47" t="s">
-        <v>141</v>
-      </c>
-      <c r="M47" s="6"/>
-      <c r="O47" s="1"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" t="s">
+        <v>121</v>
+      </c>
+      <c r="O47" s="6"/>
+      <c r="Q47" s="1"/>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="3">
         <v>43371</v>
       </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="7"/>
-      <c r="F48" t="s">
-        <v>142</v>
-      </c>
-      <c r="M48" s="6"/>
-      <c r="O48" s="1"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" t="s">
+        <v>122</v>
+      </c>
+      <c r="O48" s="6"/>
+      <c r="Q48" s="1"/>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B49" s="3">
         <v>43378</v>
       </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="7"/>
-      <c r="F49" t="s">
-        <v>143</v>
-      </c>
-      <c r="M49" s="6"/>
-      <c r="O49" s="1"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" t="s">
+        <v>123</v>
+      </c>
+      <c r="O49" s="6"/>
+      <c r="Q49" s="1"/>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B50" s="3">
         <v>43385</v>
       </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="7"/>
-      <c r="F50" t="s">
-        <v>144</v>
-      </c>
-      <c r="M50" s="6"/>
-      <c r="O50" s="1"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" t="s">
+        <v>124</v>
+      </c>
+      <c r="O50" s="6"/>
+      <c r="Q50" s="1"/>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B51" s="3">
         <v>43392</v>
       </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="7"/>
-      <c r="F51" t="s">
-        <v>145</v>
-      </c>
-      <c r="M51" s="6"/>
-      <c r="O51" s="1"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" t="s">
+        <v>125</v>
+      </c>
+      <c r="O51" s="6"/>
+      <c r="Q51" s="1"/>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B52" s="3">
         <v>43399</v>
       </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="7"/>
-      <c r="F52" t="s">
-        <v>146</v>
-      </c>
-      <c r="M52" s="6"/>
-      <c r="O52" s="1"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" t="s">
+        <v>126</v>
+      </c>
+      <c r="O52" s="6"/>
+      <c r="Q52" s="1"/>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B53" s="3">
         <v>43420</v>
       </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="7"/>
-      <c r="F53" t="s">
-        <v>147</v>
-      </c>
-      <c r="M53" s="6"/>
-      <c r="O53" s="1"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" t="s">
+        <v>127</v>
+      </c>
+      <c r="O53" s="6"/>
+      <c r="Q53" s="1"/>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B54" s="3">
         <v>43434</v>
       </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="7"/>
-      <c r="F54" t="s">
-        <v>148</v>
-      </c>
-      <c r="M54" s="6"/>
-      <c r="O54" s="1"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" t="s">
+        <v>128</v>
+      </c>
+      <c r="O54" s="6"/>
+      <c r="Q54" s="1"/>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B55" s="3">
         <v>43445</v>
       </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="7"/>
-      <c r="F55" t="s">
-        <v>149</v>
-      </c>
-      <c r="M55" s="6"/>
-      <c r="O55" s="1"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" t="s">
+        <v>129</v>
+      </c>
+      <c r="O55" s="6"/>
+      <c r="Q55" s="1"/>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B56" s="3">
         <v>43480</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="7"/>
-      <c r="F56" t="s">
-        <v>150</v>
-      </c>
-      <c r="M56" s="6"/>
-      <c r="O56" s="1"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" t="s">
+        <v>130</v>
+      </c>
+      <c r="O56" s="6"/>
+      <c r="Q56" s="1"/>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B57" s="3">
         <v>43496</v>
       </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="7"/>
-      <c r="F57" t="s">
-        <v>151</v>
-      </c>
-      <c r="M57" s="6"/>
-      <c r="O57" s="1"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" t="s">
+        <v>131</v>
+      </c>
+      <c r="O57" s="6"/>
+      <c r="Q57" s="1"/>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B58" s="3">
         <v>43517</v>
       </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="7"/>
-      <c r="F58" t="s">
-        <v>152</v>
-      </c>
-      <c r="M58" s="6"/>
-      <c r="O58" s="1"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" t="s">
+        <v>132</v>
+      </c>
+      <c r="O58" s="6"/>
+      <c r="Q58" s="1"/>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B59" s="3">
         <v>43542</v>
       </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="7"/>
-      <c r="F59" t="s">
-        <v>153</v>
-      </c>
-      <c r="M59" s="6"/>
-      <c r="O59" s="1"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" t="s">
+        <v>133</v>
+      </c>
+      <c r="O59" s="6"/>
+      <c r="Q59" s="1"/>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B60" s="3">
         <v>43546</v>
       </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="7"/>
-      <c r="F60" t="s">
-        <v>154</v>
-      </c>
-      <c r="M60" s="6"/>
-      <c r="O60" s="1"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" t="s">
+        <v>134</v>
+      </c>
+      <c r="O60" s="6"/>
+      <c r="Q60" s="1"/>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B61" s="3">
         <v>43552</v>
       </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="7"/>
-      <c r="F61" t="s">
-        <v>155</v>
-      </c>
-      <c r="M61" s="6"/>
-      <c r="O61" s="1"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" t="s">
+        <v>135</v>
+      </c>
+      <c r="O61" s="6"/>
+      <c r="Q61" s="1"/>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B62" s="3">
         <v>43556</v>
       </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="7"/>
-      <c r="F62" t="s">
-        <v>156</v>
-      </c>
-      <c r="M62" s="6"/>
-      <c r="O62" s="1"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" t="s">
+        <v>136</v>
+      </c>
+      <c r="O62" s="6"/>
+      <c r="Q62" s="1"/>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B63" s="3">
         <v>43560</v>
       </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="7"/>
-      <c r="F63" t="s">
-        <v>157</v>
-      </c>
-      <c r="M63" s="6"/>
-      <c r="O63" s="1"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" t="s">
+        <v>137</v>
+      </c>
+      <c r="O63" s="6"/>
+      <c r="Q63" s="1"/>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B64" s="3">
         <v>43581</v>
       </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="7"/>
-      <c r="F64" t="s">
-        <v>158</v>
-      </c>
-      <c r="M64" s="6"/>
-      <c r="O64" s="1"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" t="s">
+        <v>138</v>
+      </c>
+      <c r="O64" s="6"/>
+      <c r="Q64" s="1"/>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B65" s="3">
         <v>43588</v>
       </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="7"/>
-      <c r="F65" t="s">
-        <v>159</v>
-      </c>
-      <c r="M65" s="6"/>
-      <c r="O65" s="1"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" t="s">
+        <v>139</v>
+      </c>
+      <c r="O65" s="6"/>
+      <c r="Q65" s="1"/>
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B66" s="3">
         <v>43594</v>
       </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="7"/>
-      <c r="F66" t="s">
-        <v>160</v>
-      </c>
-      <c r="M66" s="6"/>
-      <c r="O66" s="1"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" t="s">
+        <v>140</v>
+      </c>
+      <c r="O66" s="6"/>
+      <c r="Q66" s="1"/>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B67" s="3">
         <v>43602</v>
       </c>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="7"/>
-      <c r="F67" t="s">
-        <v>161</v>
-      </c>
-      <c r="M67" s="6"/>
-      <c r="O67" s="1"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" t="s">
+        <v>141</v>
+      </c>
+      <c r="O67" s="6"/>
+      <c r="Q67" s="1"/>
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B68" s="3">
         <v>43636</v>
       </c>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="7"/>
-      <c r="F68" t="s">
-        <v>162</v>
-      </c>
-      <c r="M68" s="6"/>
-      <c r="O68" s="1"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" t="s">
+        <v>142</v>
+      </c>
+      <c r="O68" s="6"/>
+      <c r="Q68" s="1"/>
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B69" s="3">
         <v>43725</v>
       </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="7"/>
-      <c r="F69" t="s">
-        <v>163</v>
-      </c>
-      <c r="M69" s="6"/>
-      <c r="O69" s="1"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" t="s">
+        <v>143</v>
+      </c>
+      <c r="O69" s="6"/>
+      <c r="Q69" s="1"/>
+    </row>
+    <row r="70" spans="1:17">
       <c r="A70" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B70" s="3">
         <v>43882</v>
       </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="7"/>
-      <c r="F70" t="s">
-        <v>164</v>
-      </c>
-      <c r="M70" s="6"/>
-      <c r="O70" s="1"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" t="s">
+        <v>144</v>
+      </c>
+      <c r="O70" s="6"/>
+      <c r="Q70" s="1"/>
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B71" s="3">
         <v>43914</v>
       </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="7"/>
-      <c r="F71" t="s">
-        <v>165</v>
-      </c>
-      <c r="M71" s="6"/>
-      <c r="O71" s="1"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" t="s">
+        <v>145</v>
+      </c>
+      <c r="O71" s="6"/>
+      <c r="Q71" s="1"/>
+    </row>
+    <row r="72" spans="1:17">
       <c r="A72" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B72" s="3">
         <v>43921</v>
       </c>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="7"/>
-      <c r="F72" t="s">
-        <v>166</v>
-      </c>
-      <c r="M72" s="6"/>
-      <c r="O72" s="1"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" t="s">
+        <v>146</v>
+      </c>
+      <c r="O72" s="6"/>
+      <c r="Q72" s="1"/>
+    </row>
+    <row r="73" spans="1:17">
       <c r="A73" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B73" s="3">
         <v>43928</v>
       </c>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="7"/>
-      <c r="F73" t="s">
-        <v>167</v>
-      </c>
-      <c r="M73" s="6"/>
-      <c r="O73" s="1"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" t="s">
+        <v>147</v>
+      </c>
+      <c r="O73" s="6"/>
+      <c r="Q73" s="1"/>
+    </row>
+    <row r="74" spans="1:17">
       <c r="A74" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B74" s="3">
         <v>43938</v>
       </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="7"/>
-      <c r="F74" t="s">
-        <v>168</v>
-      </c>
-      <c r="M74" s="6"/>
-      <c r="O74" s="1"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" t="s">
+        <v>148</v>
+      </c>
+      <c r="O74" s="6"/>
+      <c r="Q74" s="1"/>
+    </row>
+    <row r="75" spans="1:17">
       <c r="A75" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B75" s="3">
         <v>44026</v>
       </c>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="7"/>
-      <c r="F75" t="s">
-        <v>169</v>
-      </c>
-      <c r="M75" s="6"/>
-      <c r="O75" s="1"/>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" t="s">
+        <v>149</v>
+      </c>
+      <c r="O75" s="6"/>
+      <c r="Q75" s="1"/>
+    </row>
+    <row r="76" spans="1:17">
       <c r="A76" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B76" s="3">
         <v>44033</v>
       </c>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="7"/>
-      <c r="F76" t="s">
-        <v>170</v>
-      </c>
-      <c r="M76" s="6"/>
-      <c r="O76" s="1"/>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" t="s">
+        <v>150</v>
+      </c>
+      <c r="O76" s="6"/>
+      <c r="Q76" s="1"/>
+    </row>
+    <row r="77" spans="1:17">
       <c r="A77" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B77" s="3">
         <v>44035</v>
       </c>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="7"/>
-      <c r="F77" t="s">
-        <v>171</v>
-      </c>
-      <c r="M77" s="6"/>
-      <c r="O77" s="1"/>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" t="s">
+        <v>151</v>
+      </c>
+      <c r="O77" s="6"/>
+      <c r="Q77" s="1"/>
+    </row>
+    <row r="78" spans="1:17">
       <c r="A78" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B78" s="3">
         <v>44039</v>
       </c>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="7"/>
-      <c r="F78" t="s">
-        <v>172</v>
-      </c>
-      <c r="M78" s="6"/>
-      <c r="O78" s="1"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" t="s">
+        <v>152</v>
+      </c>
+      <c r="O78" s="6"/>
+      <c r="Q78" s="1"/>
+    </row>
+    <row r="79" spans="1:17">
       <c r="A79" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B79" s="3">
         <v>44042</v>
       </c>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="7"/>
-      <c r="F79" t="s">
-        <v>173</v>
-      </c>
-      <c r="M79" s="6"/>
-      <c r="O79" s="1"/>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" t="s">
+        <v>153</v>
+      </c>
+      <c r="O79" s="6"/>
+      <c r="Q79" s="1"/>
+    </row>
+    <row r="80" spans="1:17">
       <c r="A80" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B80" s="3">
         <v>44047</v>
       </c>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="7"/>
-      <c r="F80" t="s">
-        <v>174</v>
-      </c>
-      <c r="M80" s="6"/>
-      <c r="O80" s="1"/>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" t="s">
+        <v>154</v>
+      </c>
+      <c r="O80" s="6"/>
+      <c r="Q80" s="1"/>
+    </row>
+    <row r="81" spans="1:17">
       <c r="A81" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B81" s="3">
         <v>44047</v>
       </c>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="7"/>
-      <c r="F81" t="s">
-        <v>175</v>
-      </c>
-      <c r="M81" s="6"/>
-      <c r="O81" s="1"/>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" t="s">
+        <v>155</v>
+      </c>
+      <c r="O81" s="6"/>
+      <c r="Q81" s="1"/>
+    </row>
+    <row r="82" spans="1:17">
       <c r="A82" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B82" s="3">
         <v>44048</v>
       </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="7"/>
-      <c r="F82" t="s">
-        <v>176</v>
-      </c>
-      <c r="M82" s="6"/>
-      <c r="O82" s="1"/>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" t="s">
+        <v>156</v>
+      </c>
+      <c r="O82" s="6"/>
+      <c r="Q82" s="1"/>
+    </row>
+    <row r="83" spans="1:17">
       <c r="A83" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B83" s="3">
         <v>44057</v>
       </c>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="7"/>
-      <c r="F83" t="s">
-        <v>177</v>
-      </c>
-      <c r="M83" s="6"/>
-      <c r="O83" s="1"/>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" t="s">
+        <v>157</v>
+      </c>
+      <c r="O83" s="6"/>
+      <c r="Q83" s="1"/>
+    </row>
+    <row r="84" spans="1:17">
       <c r="A84" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B84" s="3">
         <v>44064</v>
       </c>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="7"/>
-      <c r="F84" t="s">
-        <v>178</v>
-      </c>
-      <c r="M84" s="6"/>
-      <c r="O84" s="1"/>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" t="s">
+        <v>158</v>
+      </c>
+      <c r="O84" s="6"/>
+      <c r="Q84" s="1"/>
+    </row>
+    <row r="85" spans="1:17">
       <c r="A85" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B85" s="3">
         <v>44068</v>
       </c>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="7"/>
-      <c r="F85" t="s">
-        <v>179</v>
-      </c>
-      <c r="M85" s="6"/>
-      <c r="O85" s="1"/>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" t="s">
+        <v>159</v>
+      </c>
+      <c r="O85" s="6"/>
+      <c r="Q85" s="1"/>
+    </row>
+    <row r="86" spans="1:17">
       <c r="A86" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B86" s="3">
         <v>44078</v>
       </c>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="7"/>
-      <c r="F86" t="s">
-        <v>180</v>
-      </c>
-      <c r="M86" s="6"/>
-      <c r="O86" s="1"/>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" t="s">
+        <v>160</v>
+      </c>
+      <c r="O86" s="6"/>
+      <c r="Q86" s="1"/>
+    </row>
+    <row r="87" spans="1:17">
       <c r="A87" s="2" t="s">
-        <v>83</v>
+        <v>202</v>
       </c>
       <c r="B87" s="3">
         <v>44089</v>
       </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="7"/>
-      <c r="F87" t="s">
-        <v>181</v>
-      </c>
-      <c r="M87" s="6"/>
-      <c r="O87" s="1"/>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C87" s="4"/>
+      <c r="D87" s="8">
+        <v>82.28</v>
+      </c>
+      <c r="E87" s="8">
+        <v>-30.51</v>
+      </c>
+      <c r="F87" s="8">
+        <v>70.89</v>
+      </c>
+      <c r="G87" s="2"/>
+      <c r="H87" t="s">
+        <v>161</v>
+      </c>
+      <c r="O87" s="6"/>
+      <c r="Q87" s="1"/>
+    </row>
+    <row r="88" spans="1:17">
       <c r="A88" s="2" t="s">
-        <v>84</v>
+        <v>203</v>
       </c>
       <c r="B88" s="3">
         <v>44103</v>
       </c>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="7"/>
-      <c r="F88" t="s">
-        <v>182</v>
-      </c>
-      <c r="M88" s="6"/>
-      <c r="O88" s="1"/>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C88" s="4"/>
+      <c r="D88" s="8">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="E88" s="8">
+        <v>0</v>
+      </c>
+      <c r="F88" s="8">
+        <v>32.4</v>
+      </c>
+      <c r="G88" s="2"/>
+      <c r="H88" t="s">
+        <v>162</v>
+      </c>
+      <c r="O88" s="6"/>
+      <c r="Q88" s="1"/>
+    </row>
+    <row r="89" spans="1:17">
       <c r="A89" s="2" t="s">
-        <v>85</v>
+        <v>204</v>
       </c>
       <c r="B89" s="3">
         <v>44109</v>
       </c>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="7"/>
-      <c r="F89" t="s">
-        <v>183</v>
-      </c>
-      <c r="M89" s="6"/>
-      <c r="O89" s="1"/>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C89" s="4"/>
+      <c r="D89" s="8">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="E89" s="8">
+        <v>0</v>
+      </c>
+      <c r="F89" s="8">
+        <v>12.17</v>
+      </c>
+      <c r="G89" s="2"/>
+      <c r="H89" t="s">
+        <v>163</v>
+      </c>
+      <c r="O89" s="6"/>
+      <c r="Q89" s="1"/>
+    </row>
+    <row r="90" spans="1:17">
       <c r="A90" s="2" t="s">
-        <v>86</v>
+        <v>205</v>
       </c>
       <c r="B90" s="3">
         <v>44119</v>
       </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="7"/>
-      <c r="F90" t="s">
-        <v>184</v>
-      </c>
-      <c r="M90" s="6"/>
-      <c r="O90" s="1"/>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C90" s="4"/>
+      <c r="D90" s="8">
+        <v>38.79</v>
+      </c>
+      <c r="E90" s="8">
+        <v>0</v>
+      </c>
+      <c r="F90" s="8">
+        <v>14.59</v>
+      </c>
+      <c r="G90" s="2"/>
+      <c r="H90" t="s">
+        <v>164</v>
+      </c>
+      <c r="O90" s="6"/>
+      <c r="Q90" s="1"/>
+    </row>
+    <row r="91" spans="1:17">
       <c r="A91" s="2" t="s">
-        <v>87</v>
+        <v>206</v>
       </c>
       <c r="B91" s="3">
         <v>44125</v>
       </c>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="7"/>
-      <c r="F91" t="s">
-        <v>185</v>
-      </c>
-      <c r="M91" s="6"/>
-      <c r="O91" s="1"/>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C91" s="4"/>
+      <c r="D91" s="8">
+        <v>124.59</v>
+      </c>
+      <c r="E91" s="8">
+        <v>0</v>
+      </c>
+      <c r="F91" s="8">
+        <v>86.07</v>
+      </c>
+      <c r="G91" s="2"/>
+      <c r="H91" t="s">
+        <v>165</v>
+      </c>
+      <c r="O91" s="6"/>
+      <c r="Q91" s="1"/>
+    </row>
+    <row r="92" spans="1:17">
       <c r="A92" s="2" t="s">
-        <v>88</v>
+        <v>207</v>
       </c>
       <c r="B92" s="3">
         <v>44152</v>
       </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="7"/>
-      <c r="F92" t="s">
-        <v>186</v>
-      </c>
-      <c r="M92" s="6"/>
-      <c r="O92" s="1"/>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C92" s="4"/>
+      <c r="D92" s="8">
+        <v>91.75</v>
+      </c>
+      <c r="E92" s="8">
+        <v>-23.86</v>
+      </c>
+      <c r="F92" s="8">
+        <v>13.71</v>
+      </c>
+      <c r="G92" s="2"/>
+      <c r="H92" t="s">
+        <v>166</v>
+      </c>
+      <c r="O92" s="6"/>
+      <c r="Q92" s="1"/>
+    </row>
+    <row r="93" spans="1:17">
       <c r="A93" s="2" t="s">
-        <v>89</v>
+        <v>208</v>
       </c>
       <c r="B93" s="3">
         <v>44154</v>
       </c>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="7"/>
-      <c r="F93" t="s">
-        <v>187</v>
-      </c>
-      <c r="M93" s="6"/>
-      <c r="O93" s="1"/>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C93" s="4"/>
+      <c r="D93" s="8">
+        <v>115.1</v>
+      </c>
+      <c r="E93" s="8">
+        <v>0</v>
+      </c>
+      <c r="F93" s="8">
+        <v>60.45</v>
+      </c>
+      <c r="G93" s="2"/>
+      <c r="H93" t="s">
+        <v>167</v>
+      </c>
+      <c r="O93" s="6"/>
+      <c r="Q93" s="1"/>
+    </row>
+    <row r="94" spans="1:17">
       <c r="A94" s="2" t="s">
-        <v>90</v>
+        <v>209</v>
       </c>
       <c r="B94" s="3">
         <v>44165</v>
       </c>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="7"/>
-      <c r="F94" t="s">
-        <v>188</v>
-      </c>
-      <c r="M94" s="6"/>
-      <c r="O94" s="1"/>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C94" s="4"/>
+      <c r="D94" s="8">
+        <v>37.369999999999997</v>
+      </c>
+      <c r="E94" s="8">
+        <v>-29.47</v>
+      </c>
+      <c r="F94" s="8">
+        <v>-24.56</v>
+      </c>
+      <c r="G94" s="2"/>
+      <c r="H94" t="s">
+        <v>168</v>
+      </c>
+      <c r="O94" s="6"/>
+      <c r="Q94" s="1"/>
+    </row>
+    <row r="95" spans="1:17">
       <c r="A95" s="2" t="s">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="B95" s="3">
         <v>44167</v>
       </c>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="7"/>
-      <c r="F95" t="s">
-        <v>189</v>
-      </c>
-      <c r="M95" s="6"/>
-      <c r="O95" s="1"/>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C95" s="4"/>
+      <c r="D95" s="8">
+        <v>86.43</v>
+      </c>
+      <c r="E95" s="8">
+        <v>-20</v>
+      </c>
+      <c r="F95" s="8">
+        <v>-17.14</v>
+      </c>
+      <c r="G95" s="2"/>
+      <c r="H95" t="s">
+        <v>169</v>
+      </c>
+      <c r="O95" s="6"/>
+      <c r="Q95" s="1"/>
+    </row>
+    <row r="96" spans="1:17">
       <c r="A96" s="2" t="s">
-        <v>92</v>
+        <v>211</v>
       </c>
       <c r="B96" s="3">
         <v>44173</v>
       </c>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="7"/>
-      <c r="F96" t="s">
-        <v>190</v>
-      </c>
-      <c r="M96" s="6"/>
-      <c r="O96" s="1"/>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C96" s="4"/>
+      <c r="D96" s="8">
+        <v>85.69</v>
+      </c>
+      <c r="E96" s="8">
+        <v>-8.67</v>
+      </c>
+      <c r="F96" s="8">
+        <v>-6.05</v>
+      </c>
+      <c r="G96" s="2"/>
+      <c r="H96" t="s">
+        <v>170</v>
+      </c>
+      <c r="O96" s="6"/>
+      <c r="Q96" s="1"/>
+    </row>
+    <row r="97" spans="1:17">
       <c r="A97" s="2" t="s">
-        <v>93</v>
+        <v>212</v>
       </c>
       <c r="B97" s="3">
         <v>44189</v>
       </c>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="7"/>
-      <c r="F97" t="s">
-        <v>191</v>
-      </c>
-      <c r="M97" s="6"/>
-      <c r="O97" s="1"/>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C97" s="4"/>
+      <c r="D97" s="8">
+        <v>4.78</v>
+      </c>
+      <c r="E97" s="8">
+        <v>-45.56</v>
+      </c>
+      <c r="F97" s="8">
+        <v>-41.28</v>
+      </c>
+      <c r="G97" s="2"/>
+      <c r="H97" t="s">
+        <v>171</v>
+      </c>
+      <c r="O97" s="6"/>
+      <c r="Q97" s="1"/>
+    </row>
+    <row r="98" spans="1:17">
       <c r="A98" s="2" t="s">
-        <v>94</v>
+        <v>200</v>
       </c>
       <c r="B98" s="3">
         <v>44217</v>
       </c>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="7"/>
-      <c r="F98" t="s">
-        <v>192</v>
-      </c>
-      <c r="M98" s="6"/>
-      <c r="O98" s="1"/>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C98" s="4"/>
+      <c r="D98" s="8">
+        <v>209.47</v>
+      </c>
+      <c r="E98" s="8">
+        <v>-33.14</v>
+      </c>
+      <c r="F98" s="8">
+        <v>-26.63</v>
+      </c>
+      <c r="G98" s="2"/>
+      <c r="H98" t="s">
+        <v>172</v>
+      </c>
+      <c r="O98" s="6"/>
+      <c r="Q98" s="1"/>
+    </row>
+    <row r="99" spans="1:17">
       <c r="A99" s="2" t="s">
-        <v>95</v>
+        <v>201</v>
       </c>
       <c r="B99" s="3">
         <v>44223</v>
       </c>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="7"/>
-      <c r="F99" t="s">
-        <v>193</v>
-      </c>
-      <c r="M99" s="6"/>
-      <c r="O99" s="1"/>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C99" s="4"/>
+      <c r="D99" s="8">
+        <v>24.83</v>
+      </c>
+      <c r="E99" s="8">
+        <v>-53.89</v>
+      </c>
+      <c r="F99" s="8">
+        <v>-51.52</v>
+      </c>
+      <c r="G99" s="2"/>
+      <c r="H99" t="s">
+        <v>173</v>
+      </c>
+      <c r="O99" s="6"/>
+      <c r="Q99" s="1"/>
+    </row>
+    <row r="100" spans="1:17">
       <c r="A100" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B100" s="3">
         <v>44251</v>
       </c>
-      <c r="C100" s="2">
+      <c r="C100" s="7">
+        <v>44251.628472222219</v>
+      </c>
+      <c r="D100" s="8">
+        <v>85.38</v>
+      </c>
+      <c r="E100" s="8">
+        <v>-55.08</v>
+      </c>
+      <c r="F100" s="8">
         <v>-50.08</v>
       </c>
-      <c r="D100" s="5">
-        <v>44251.628472222219</v>
-      </c>
-      <c r="E100" s="9"/>
-      <c r="F100" t="s">
-        <v>194</v>
-      </c>
-      <c r="M100" s="6"/>
-      <c r="O100" s="1"/>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G100" s="5"/>
+      <c r="H100" t="s">
+        <v>174</v>
+      </c>
+      <c r="O100" s="6"/>
+      <c r="Q100" s="1"/>
+    </row>
+    <row r="101" spans="1:17">
       <c r="A101" s="2" t="s">
-        <v>97</v>
+        <v>199</v>
       </c>
       <c r="B101" s="3">
         <v>44291</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C101" s="7">
+        <v>44291.645833333336</v>
+      </c>
+      <c r="D101" s="8">
+        <v>40.56</v>
+      </c>
+      <c r="E101" s="8">
+        <v>-63.5</v>
+      </c>
+      <c r="F101" s="8">
         <v>-43.02</v>
       </c>
-      <c r="D101" s="5">
-        <v>44291.645833333336</v>
-      </c>
-      <c r="E101" s="9"/>
-      <c r="F101" t="s">
-        <v>195</v>
-      </c>
-      <c r="M101" s="6"/>
-      <c r="O101" s="1"/>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G101" s="5"/>
+      <c r="H101" t="s">
+        <v>175</v>
+      </c>
+      <c r="O101" s="6"/>
+      <c r="Q101" s="1"/>
+    </row>
+    <row r="102" spans="1:17">
       <c r="A102" s="2" t="s">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="B102" s="3">
         <v>44291</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C102" s="7">
+        <v>44291.645833333336</v>
+      </c>
+      <c r="D102" s="8">
+        <v>254.11</v>
+      </c>
+      <c r="E102" s="8">
+        <v>-25.38</v>
+      </c>
+      <c r="F102" s="8">
         <v>1.07</v>
       </c>
-      <c r="D102" s="5">
-        <v>44291.645833333336</v>
-      </c>
-      <c r="E102" s="9"/>
-      <c r="F102" t="s">
-        <v>196</v>
-      </c>
-      <c r="M102" s="6"/>
-      <c r="O102" s="1"/>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G102" s="5"/>
+      <c r="H102" t="s">
+        <v>176</v>
+      </c>
+      <c r="O102" s="6"/>
+      <c r="Q102" s="1"/>
+    </row>
+    <row r="103" spans="1:17">
       <c r="A103" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="B103" s="3">
         <v>44291</v>
       </c>
-      <c r="C103" s="2">
+      <c r="C103" s="7">
+        <v>44291.645833333336</v>
+      </c>
+      <c r="D103" s="8">
+        <v>25.32</v>
+      </c>
+      <c r="E103" s="8">
+        <v>-88</v>
+      </c>
+      <c r="F103" s="8">
         <v>-31.3</v>
       </c>
-      <c r="D103" s="5">
-        <v>44291.645833333336</v>
-      </c>
-      <c r="E103" s="9"/>
-      <c r="F103" t="s">
-        <v>197</v>
-      </c>
-      <c r="M103" s="6"/>
-      <c r="O103" s="1"/>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G103" s="5"/>
+      <c r="H103" t="s">
+        <v>177</v>
+      </c>
+      <c r="O103" s="6"/>
+      <c r="Q103" s="1"/>
+    </row>
+    <row r="104" spans="1:17">
       <c r="A104" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B104" s="3">
         <v>44291</v>
       </c>
-      <c r="C104" s="2">
+      <c r="C104" s="7">
+        <v>44291.645833333336</v>
+      </c>
+      <c r="D104" s="8">
+        <v>94.07</v>
+      </c>
+      <c r="E104" s="8">
+        <v>-38.14</v>
+      </c>
+      <c r="F104" s="8">
         <v>14.58</v>
       </c>
-      <c r="D104" s="5">
-        <v>44291.645833333336</v>
-      </c>
-      <c r="E104" s="9"/>
-      <c r="F104" t="s">
-        <v>198</v>
-      </c>
-      <c r="M104" s="6"/>
-      <c r="O104" s="1"/>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G104" s="5"/>
+      <c r="H104" t="s">
+        <v>178</v>
+      </c>
+      <c r="O104" s="6"/>
+      <c r="Q104" s="1"/>
+    </row>
+    <row r="105" spans="1:17">
       <c r="A105" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="B105" s="3">
         <v>44484</v>
       </c>
-      <c r="C105" s="2">
+      <c r="C105" s="7">
+        <v>44484.649305555555</v>
+      </c>
+      <c r="D105" s="8">
+        <v>270.37</v>
+      </c>
+      <c r="E105" s="8">
+        <v>0</v>
+      </c>
+      <c r="F105" s="8">
         <v>50.74</v>
       </c>
-      <c r="D105" s="5">
-        <v>44484.649305555555</v>
-      </c>
-      <c r="E105" s="9"/>
-      <c r="F105" t="s">
-        <v>199</v>
-      </c>
-      <c r="M105" s="6"/>
-      <c r="O105" s="1"/>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G105" s="5"/>
+      <c r="H105" t="s">
+        <v>179</v>
+      </c>
+      <c r="O105" s="6"/>
+      <c r="Q105" s="1"/>
+    </row>
+    <row r="106" spans="1:17">
       <c r="A106" s="2" t="s">
-        <v>102</v>
+        <v>193</v>
       </c>
       <c r="B106" s="3">
         <v>44484</v>
       </c>
-      <c r="C106" s="2">
+      <c r="C106" s="7">
+        <v>44484.649305555555</v>
+      </c>
+      <c r="D106" s="8">
+        <v>3084.71</v>
+      </c>
+      <c r="E106" s="8">
+        <v>0</v>
+      </c>
+      <c r="F106" s="8">
         <v>478.03</v>
       </c>
-      <c r="D106" s="5">
-        <v>44484.649305555555</v>
-      </c>
-      <c r="E106" s="9"/>
-      <c r="F106" t="s">
-        <v>200</v>
-      </c>
-      <c r="M106" s="6"/>
-      <c r="O106" s="1"/>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G106" s="5"/>
+      <c r="H106" t="s">
+        <v>180</v>
+      </c>
+      <c r="O106" s="6"/>
+      <c r="Q106" s="1"/>
+    </row>
+    <row r="107" spans="1:17">
       <c r="A107" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B107" s="3">
         <v>44484</v>
       </c>
-      <c r="C107" s="2">
+      <c r="C107" s="7">
+        <v>44572.649305555555</v>
+      </c>
+      <c r="D107" s="8">
+        <v>54.07</v>
+      </c>
+      <c r="E107" s="8">
+        <v>0</v>
+      </c>
+      <c r="F107" s="8">
         <v>25.86</v>
       </c>
-      <c r="D107" s="5">
-        <v>44572.649305555555</v>
-      </c>
-      <c r="E107" s="9"/>
-      <c r="F107" t="s">
-        <v>201</v>
-      </c>
-      <c r="M107" s="6"/>
-      <c r="O107" s="1"/>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G107" s="5"/>
+      <c r="H107" t="s">
+        <v>181</v>
+      </c>
+      <c r="O107" s="6"/>
+      <c r="Q107" s="1"/>
+    </row>
+    <row r="108" spans="1:17">
       <c r="A108" s="2" t="s">
-        <v>104</v>
+        <v>194</v>
       </c>
       <c r="B108" s="3">
         <v>44496</v>
       </c>
-      <c r="C108" s="2">
+      <c r="C108" s="7">
+        <v>44496.711805555555</v>
+      </c>
+      <c r="D108" s="8">
+        <v>459.42</v>
+      </c>
+      <c r="E108" s="8">
+        <v>0</v>
+      </c>
+      <c r="F108" s="8">
         <v>68.55</v>
       </c>
-      <c r="D108" s="5">
-        <v>44496.711805555555</v>
-      </c>
-      <c r="E108" s="9"/>
-      <c r="F108" t="s">
-        <v>202</v>
-      </c>
-      <c r="M108" s="6"/>
-      <c r="O108" s="1"/>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G108" s="5"/>
+      <c r="H108" t="s">
+        <v>182</v>
+      </c>
+      <c r="O108" s="6"/>
+      <c r="Q108" s="1"/>
+    </row>
+    <row r="109" spans="1:17">
       <c r="A109" s="2" t="s">
-        <v>105</v>
+        <v>195</v>
       </c>
       <c r="B109" s="3">
         <v>44496</v>
       </c>
-      <c r="C109" s="2">
+      <c r="C109" s="7">
+        <v>44496.770833333336</v>
+      </c>
+      <c r="D109" s="8">
+        <v>153.86000000000001</v>
+      </c>
+      <c r="E109" s="8">
+        <v>0</v>
+      </c>
+      <c r="F109" s="8">
         <v>15.35</v>
       </c>
-      <c r="D109" s="5">
-        <v>44496.770833333336</v>
-      </c>
-      <c r="E109" s="9"/>
-      <c r="F109" t="s">
-        <v>203</v>
-      </c>
-      <c r="M109" s="6"/>
-      <c r="O109" s="1"/>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G109" s="5"/>
+      <c r="H109" t="s">
+        <v>183</v>
+      </c>
+      <c r="O109" s="6"/>
+      <c r="Q109" s="1"/>
+    </row>
+    <row r="110" spans="1:17">
       <c r="A110" s="2" t="s">
-        <v>106</v>
+        <v>196</v>
       </c>
       <c r="B110" s="3">
         <v>44518</v>
       </c>
-      <c r="C110" s="2">
+      <c r="C110" s="7">
+        <v>44518.5625</v>
+      </c>
+      <c r="D110" s="8">
+        <v>90.62</v>
+      </c>
+      <c r="E110" s="8">
+        <v>-66.38</v>
+      </c>
+      <c r="F110" s="8">
         <v>-64.62</v>
       </c>
-      <c r="D110" s="5">
-        <v>44518.5625</v>
-      </c>
-      <c r="E110" s="9"/>
-      <c r="F110" t="s">
-        <v>204</v>
-      </c>
-      <c r="M110" s="6"/>
-      <c r="O110" s="1"/>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G110" s="5"/>
+      <c r="H110" t="s">
+        <v>184</v>
+      </c>
+      <c r="O110" s="6"/>
+      <c r="Q110" s="1"/>
+    </row>
+    <row r="111" spans="1:17">
       <c r="A111" s="2" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="B111" s="3">
         <v>44545</v>
       </c>
-      <c r="C111" s="2">
+      <c r="C111" s="7">
+        <v>44545.545138888891</v>
+      </c>
+      <c r="D111" s="8">
+        <v>30.5</v>
+      </c>
+      <c r="E111" s="8">
+        <v>-79.22</v>
+      </c>
+      <c r="F111" s="8">
         <v>-75.09</v>
       </c>
-      <c r="D111" s="5">
-        <v>44545.545138888891</v>
-      </c>
-      <c r="E111" s="9"/>
-      <c r="F111" t="s">
-        <v>205</v>
-      </c>
-      <c r="M111" s="6"/>
-      <c r="O111" s="1"/>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G111" s="5"/>
+      <c r="H111" t="s">
+        <v>185</v>
+      </c>
+      <c r="O111" s="6"/>
+      <c r="Q111" s="1"/>
+    </row>
+    <row r="112" spans="1:17">
       <c r="A112" s="2" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="B112" s="3">
         <v>44572</v>
       </c>
-      <c r="C112" s="2">
+      <c r="C112" s="7">
+        <v>44572.649305555555</v>
+      </c>
+      <c r="D112" s="8">
+        <v>149.81</v>
+      </c>
+      <c r="E112" s="8">
+        <v>0</v>
+      </c>
+      <c r="F112" s="8">
         <v>63.24</v>
       </c>
-      <c r="D112" s="5">
-        <v>44572.649305555555</v>
-      </c>
-      <c r="E112" s="9"/>
-      <c r="F112" t="s">
-        <v>206</v>
-      </c>
-      <c r="M112" s="6"/>
-      <c r="O112" s="1"/>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G112" s="5"/>
+      <c r="H112" t="s">
+        <v>186</v>
+      </c>
+      <c r="O112" s="6"/>
+      <c r="Q112" s="1"/>
+    </row>
+    <row r="113" spans="1:17">
       <c r="A113" s="2" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="B113" s="3">
         <v>44600</v>
       </c>
-      <c r="C113" s="2">
+      <c r="C113" s="7">
+        <v>44600.836805555555</v>
+      </c>
+      <c r="D113" s="8">
+        <v>33.57</v>
+      </c>
+      <c r="E113" s="8">
+        <v>0</v>
+      </c>
+      <c r="F113" s="8">
         <v>24.09</v>
       </c>
-      <c r="D113" s="5">
-        <v>44600.836805555555</v>
-      </c>
-      <c r="E113" s="9"/>
-      <c r="F113" t="s">
-        <v>207</v>
-      </c>
-      <c r="M113" s="6"/>
-      <c r="O113" s="1"/>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G113" s="5"/>
+      <c r="H113" t="s">
+        <v>187</v>
+      </c>
+      <c r="O113" s="6"/>
+      <c r="Q113" s="1"/>
+    </row>
+    <row r="114" spans="1:17">
       <c r="A114" s="2" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="B114" s="3">
         <v>44622</v>
       </c>
-      <c r="C114" s="2">
+      <c r="C114" s="7">
+        <v>44622.711805555555</v>
+      </c>
+      <c r="D114" s="8">
+        <v>50.24</v>
+      </c>
+      <c r="E114" s="8">
+        <v>0</v>
+      </c>
+      <c r="F114" s="8">
         <v>9.9499999999999993</v>
       </c>
-      <c r="D114" s="5">
-        <v>44622.711805555555</v>
-      </c>
-      <c r="E114" s="9"/>
-      <c r="F114" t="s">
-        <v>208</v>
-      </c>
-      <c r="M114" s="6"/>
-      <c r="O114" s="1"/>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G114" s="5"/>
+      <c r="H114" t="s">
+        <v>188</v>
+      </c>
+      <c r="O114" s="6"/>
+      <c r="Q114" s="1"/>
+    </row>
+    <row r="115" spans="1:17">
       <c r="A115" s="2" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="B115" s="3">
         <v>44637</v>
       </c>
-      <c r="C115" s="2">
+      <c r="C115" s="7">
+        <v>44637.670138888891</v>
+      </c>
+      <c r="D115" s="8">
+        <v>58.02</v>
+      </c>
+      <c r="E115" s="8">
+        <v>0</v>
+      </c>
+      <c r="F115" s="8">
         <v>26.81</v>
       </c>
-      <c r="D115" s="5">
-        <v>44637.670138888891</v>
-      </c>
-      <c r="E115" s="9"/>
-      <c r="F115" t="s">
-        <v>209</v>
-      </c>
-      <c r="M115" s="6"/>
-      <c r="O115" s="1"/>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G115" s="5"/>
+      <c r="H115" t="s">
+        <v>189</v>
+      </c>
+      <c r="O115" s="6"/>
+      <c r="Q115" s="1"/>
+    </row>
+    <row r="116" spans="1:17">
       <c r="A116" s="2" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="B116" s="3">
         <v>44685</v>
       </c>
-      <c r="C116" s="2">
+      <c r="C116" s="7">
+        <v>44685.670138888891</v>
+      </c>
+      <c r="D116" s="8">
+        <v>21.68</v>
+      </c>
+      <c r="E116" s="8">
+        <v>0</v>
+      </c>
+      <c r="F116" s="8">
         <v>15.45</v>
       </c>
-      <c r="D116" s="5">
-        <v>44685.670138888891</v>
-      </c>
-      <c r="E116" s="9"/>
-      <c r="F116" t="s">
-        <v>210</v>
+      <c r="G116" s="5"/>
+      <c r="H116" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
